--- a/data/education_esp_S.xlsx
+++ b/data/education_esp_S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B4A64-6410-43FB-8B35-E8AE150E2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0C379-EEEF-40CC-ABA8-E5E12FDCBEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2325" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>what</t>
   </si>
@@ -37,31 +37,25 @@
     <t>why</t>
   </si>
   <si>
-    <t>PhD - Psychology</t>
-  </si>
-  <si>
-    <t>MSc in Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t>Stirling, Reino Unido</t>
-  </si>
-  <si>
-    <t>Liverpool, Reino Unido</t>
-  </si>
-  <si>
-    <t>Licenciatura en Pedagogía Musical</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
-  </si>
-  <si>
-    <t>\href{https://www.liverpool.ac.uk/}{University of Liverpool}</t>
-  </si>
-  <si>
-    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+    <t>\href{https://www.uv.es/uvweb/universidad/es/universidad-valencia-1285845048380.html}{Universidad de Valencia}</t>
+  </si>
+  <si>
+    <t>Valencia, España</t>
+  </si>
+  <si>
+    <t>\href{https://www.ucatolica.edu.co/portal/Pregrado/psicologia/}{Universidad Cátolica de Colombia}</t>
+  </si>
+  <si>
+    <t>PhD - Neurociencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máster en Neurociencias Básicas y Aplicadas </t>
+  </si>
+  <si>
+    <t>Psicología</t>
   </si>
 </sst>
 </file>
@@ -552,48 +546,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,19 +902,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="135.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,46 +931,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2009</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
